--- a/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23391031-FFD1-EA48-BA86-65A7DF791F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C417E8-F2E0-8F48-AFEB-60E1ED9E82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="3280" windowWidth="39400" windowHeight="24940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="346">
   <si>
     <t>Description</t>
   </si>
@@ -1075,9 +1075,6 @@
   </si>
   <si>
     <t>//diggs:measurand</t>
-  </si>
-  <si>
-    <t>measurend</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1266,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1320,23 +1317,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1366,89 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1404,15 +1467,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1468,85 +1522,12 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1646,30 +1627,30 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="15">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D37" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D37" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="6">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1677,17 +1658,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6630CC37-04AB-8D4D-892F-F71979176D16}" name="AssociatedElements5" displayName="AssociatedElements5" ref="A1:D2" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6630CC37-04AB-8D4D-892F-F71979176D16}" name="AssociatedElements5" displayName="AssociatedElements5" ref="A1:D2" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02380BFF-37AF-9E4B-90BC-810D8EE9F845}" name="Start" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{02380BFF-37AF-9E4B-90BC-810D8EE9F845}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5E6BF6FE-A198-8C42-A675-7E2A6AC3DAC7}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{5B418AFD-E436-414C-98B3-82272B95D62A}" name="Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5E6BF6FE-A198-8C42-A675-7E2A6AC3DAC7}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5B418AFD-E436-414C-98B3-82272B95D62A}" name="Name" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{1FE3CE3E-155C-A44F-A7E6-27A5EC4A69F8}" name="codeSpace"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1976,7 +1957,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2001,7 @@
         <v>237</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>238</v>
@@ -2095,7 +2076,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="str">
+      <c r="A2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2117,7 +2098,7 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="str">
+      <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2139,7 +2120,7 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="str">
+      <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2161,7 +2142,7 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="str">
+      <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2183,7 +2164,7 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="str">
+      <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2906,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2205,7 +2186,7 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="str">
+      <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2910,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2227,7 +2208,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="str">
+      <c r="A8" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2911,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2249,7 +2230,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="str">
+      <c r="A9" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2917,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2271,7 +2252,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="str">
+      <c r="A10" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2919,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2293,7 +2274,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="str">
+      <c r="A11" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2921,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2315,7 +2296,7 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="str">
+      <c r="A12" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2922,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2337,7 +2318,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="str">
+      <c r="A13" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2923,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2359,7 +2340,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="str">
+      <c r="A14" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2927,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2381,7 +2362,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="str">
+      <c r="A15" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2969,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2403,7 +2384,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="str">
+      <c r="A16" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2970,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2425,7 +2406,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="str">
+      <c r="A17" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2971,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2447,7 +2428,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="str">
+      <c r="A18" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2977,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2469,7 +2450,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="str">
+      <c r="A19" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2991,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2491,7 +2472,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="str">
+      <c r="A20" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2993,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2513,7 +2494,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="str">
+      <c r="A21" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3003,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2535,7 +2516,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="str">
+      <c r="A22" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3006,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2557,7 +2538,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="str">
+      <c r="A23" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3007,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2579,7 +2560,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="str">
+      <c r="A24" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3010,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2601,17 +2582,17 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="str">
+      <c r="A25" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3023,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -2623,7 +2604,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="str">
+      <c r="A26" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2645,7 +2626,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="str">
+      <c r="A27" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2667,7 +2648,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="str">
+      <c r="A28" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2689,7 +2670,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="str">
+      <c r="A29" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2902,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2711,7 +2692,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="str">
+      <c r="A30" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2908,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2731,7 +2712,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="str">
+      <c r="A31" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2961,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2751,7 +2732,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="str">
+      <c r="A32" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2962,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2773,7 +2754,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="str">
+      <c r="A33" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2967,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2795,7 +2776,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="str">
+      <c r="A34" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2975,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2817,7 +2798,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="str">
+      <c r="A35" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2999,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2839,7 +2820,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="str">
+      <c r="A36" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3005,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2861,7 +2842,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="str">
+      <c r="A37" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3009,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
@@ -2936,11 +2917,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="str">
+      <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2948,7 +2929,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="str">
+      <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2960,7 +2941,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="str">
+      <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2972,7 +2953,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="str">
+      <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2984,7 +2965,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="str">
+      <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2996,7 +2977,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="str">
+      <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3008,7 +2989,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="str">
+      <c r="A9" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3020,11 +3001,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="str">
+      <c r="A10" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3032,11 +3013,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="str">
+      <c r="A11" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>279</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -3044,11 +3025,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="str">
+      <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>282</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3056,11 +3037,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="str">
+      <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>285</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3068,11 +3049,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="str">
+      <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>288</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3080,7 +3061,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="str">
+      <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3092,7 +3073,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="str">
+      <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3104,7 +3085,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="str">
+      <c r="A17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3116,7 +3097,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="str">
+      <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3128,11 +3109,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="str">
+      <c r="A19" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>313</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3140,11 +3121,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="str">
+      <c r="A20" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>316</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3152,11 +3133,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="str">
+      <c r="A21" t="str">
         <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>322</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3164,11 +3145,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="str">
+      <c r="A22" t="str">
         <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3176,11 +3157,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="str">
+      <c r="A23" t="str">
         <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>330</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3188,7 +3169,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="str">
+      <c r="A24" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3200,7 +3181,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="str">
+      <c r="A25" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3212,7 +3193,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="str">
+      <c r="A26" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3224,11 +3205,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="str">
+      <c r="A27" t="str">
         <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3236,11 +3217,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="str">
+      <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="15" t="s">
         <v>247</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3248,11 +3229,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="str">
+      <c r="A29" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="15" t="s">
         <v>259</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3260,11 +3241,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="str">
+      <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="15" t="s">
         <v>265</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3272,11 +3253,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="str">
+      <c r="A31" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="15" t="s">
         <v>290</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3284,11 +3265,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="str">
+      <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3296,11 +3277,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="str">
+      <c r="A33" t="str">
         <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="15" t="s">
         <v>295</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3308,11 +3289,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="str">
+      <c r="A34" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="15" t="s">
         <v>307</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3320,11 +3301,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="str">
+      <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="15" t="s">
         <v>319</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3332,11 +3313,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="str">
+      <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="15" t="s">
         <v>325</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3344,11 +3325,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="str">
+      <c r="A37" t="str">
         <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C37" s="3" t="s">

--- a/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C417E8-F2E0-8F48-AFEB-60E1ED9E82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA570B61-8B73-054B-AE6C-DD5888B23373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="3280" windowWidth="39400" windowHeight="24940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosscutts/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA570B61-8B73-054B-AE6C-DD5888B23373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7275485-4214-6745-B76F-D3DE218A157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="3280" windowWidth="39400" windowHeight="24940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="2460" windowWidth="39400" windowHeight="24940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2032,8 +2032,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B27:B37"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G28" s="11"/>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosscutts/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7275485-4214-6745-B76F-D3DE218A157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA570B61-8B73-054B-AE6C-DD5888B23373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="2460" windowWidth="39400" windowHeight="24940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="3280" windowWidth="39400" windowHeight="24940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2032,8 +2032,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B37" sqref="B27:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G28" s="11"/>
     </row>

--- a/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA570B61-8B73-054B-AE6C-DD5888B23373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F108C6-BB4F-D04A-9911-CD2B0959E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="3280" windowWidth="39400" windowHeight="24940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60300" yWindow="660" windowWidth="38100" windowHeight="19560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2032,8 +2032,12 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B27:B37"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2877,7 +2881,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>

--- a/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/measurand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F108C6-BB4F-D04A-9911-CD2B0959E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630AEDB0-34BC-0941-A764-DCAAAB58ED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60300" yWindow="660" windowWidth="38100" windowHeight="19560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15700" yWindow="4860" windowWidth="38100" windowHeight="19560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1068,13 +1068,13 @@
     <t>water_elev</t>
   </si>
   <si>
-    <t>Water elevation</t>
-  </si>
-  <si>
     <t>Measured elevation of water level, typically directly observed or computed from a pressure transducer</t>
   </si>
   <si>
     <t>//diggs:measurand</t>
+  </si>
+  <si>
+    <t>Water Elevation</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1302,9 +1302,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1318,6 +1315,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1621,7 +1624,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H37" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
-    <sortCondition ref="A1:A37"/>
+    <sortCondition ref="B1:B37"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="15">
@@ -2032,12 +2035,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2079,283 +2079,281 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2906,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2910,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>105</v>
+      <c r="F7" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2911,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2902,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>162</v>
+      <c r="F8" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2917,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2906,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2919,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2908,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2921,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="15" t="s">
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2910,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>11</v>
+      <c r="F11" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2922,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E12" s="15" t="s">
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2911,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>11</v>
+      <c r="F12" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2923,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="15" t="s">
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2917,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>11</v>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2927,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2919,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>1</v>
@@ -2365,505 +2363,507 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2969,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2921,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>3</v>
+      <c r="F15" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2970,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2922,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>3</v>
+      <c r="F16" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2971,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2923,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>3</v>
+      <c r="F17" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2977,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2927,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>20</v>
+      <c r="F18" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2991,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2961,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E19" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="F19" s="19"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2993,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2962,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E20" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>10</v>
+      <c r="F20" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3003,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2967,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E21" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>22</v>
+      <c r="F21" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3006,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2969,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>25</v>
+        <v>298</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3007,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2970,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E23" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3010,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E24" s="2" t="s">
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2971,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="19" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3023,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2975,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>2</v>
+      <c r="F25" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2977,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>2</v>
+      <c r="F26" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2991,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2993,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2999,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2902,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3003,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2908,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2961,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3005,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="E31" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2962,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3006,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3007,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2967,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="E33" s="20" t="s">
+      <c r="F33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3009,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3010,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2975,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2999,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3005,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3023,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E36" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>5</v>
+      <c r="F36" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3009,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>334</v>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3024,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>111</v>
+      <c r="F37" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -2881,7 +2881,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
@@ -2917,7 +2917,7 @@
         <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2925,11 +2925,11 @@
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2941,7 +2941,7 @@
         <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>256</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2965,7 +2965,7 @@
         <v>262</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
         <v>268</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2989,7 +2989,7 @@
         <v>271</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3001,7 +3001,7 @@
         <v>274</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3009,11 +3009,11 @@
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>277</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3021,11 +3021,11 @@
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>279</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3033,11 +3033,11 @@
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>282</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3045,11 +3045,11 @@
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>285</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3057,11 +3057,11 @@
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>288</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3073,7 +3073,7 @@
         <v>298</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3085,7 +3085,7 @@
         <v>301</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3097,7 +3097,7 @@
         <v>304</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>310</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3117,11 +3117,11 @@
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>313</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3129,11 +3129,11 @@
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>316</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3141,11 +3141,11 @@
         <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>322</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3153,11 +3153,11 @@
         <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3165,11 +3165,11 @@
         <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1839,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>330</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3181,7 +3181,7 @@
         <v>336</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3193,7 +3193,7 @@
         <v>339</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3205,7 +3205,7 @@
         <v>342</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3217,7 +3217,7 @@
         <v>241</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3229,7 +3229,7 @@
         <v>247</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3241,7 +3241,7 @@
         <v>259</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3253,7 +3253,7 @@
         <v>265</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3265,7 +3265,7 @@
         <v>290</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3277,7 +3277,7 @@
         <v>292</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3289,7 +3289,7 @@
         <v>295</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3301,7 +3301,7 @@
         <v>307</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
         <v>319</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
         <v>325</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3337,7 +3337,7 @@
         <v>333</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
